--- a/Adm_cue.xlsx
+++ b/Adm_cue.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\Pattern Recognition And Machine Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E52A23D-D183-44A2-94D1-042DA12FFBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B708BD9D-2B34-4354-9D7C-A7CEE6AE8D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -169,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -181,7 +181,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -398,7 +397,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DE0BBE18-124A-4B7A-A283-018F0C5E21DD}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DE0BBE18-124A-4B7A-A283-018F0C5E21DD}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:C30" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -877,10 +876,10 @@
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2">
         <v>4765</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2">
         <v>223</v>
       </c>
     </row>
@@ -888,21 +887,21 @@
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3">
         <v>320</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>320</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4">
         <v>18</v>
       </c>
     </row>
@@ -910,32 +909,32 @@
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>2026</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>1204</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>822</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7">
         <v>18</v>
       </c>
     </row>
@@ -943,21 +942,21 @@
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>1000</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>1000</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9">
         <v>44</v>
       </c>
     </row>
@@ -965,21 +964,21 @@
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10">
         <v>610</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11">
         <v>610</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11">
         <v>38</v>
       </c>
     </row>
@@ -987,43 +986,43 @@
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12">
         <v>768</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13">
         <v>555</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14">
         <v>87</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15">
         <v>126</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15">
         <v>5</v>
       </c>
     </row>
@@ -1031,21 +1030,21 @@
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16">
         <v>8</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17">
         <v>8</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17">
         <v>1</v>
       </c>
     </row>
@@ -1053,32 +1052,32 @@
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18">
         <v>33</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19">
         <v>13</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20">
         <v>20</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20">
         <v>1</v>
       </c>
     </row>
@@ -1086,10 +1085,10 @@
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21">
         <v>1524</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21">
         <v>17</v>
       </c>
     </row>
@@ -1097,65 +1096,65 @@
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22">
         <v>1402</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23">
         <v>1150</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24">
         <v>26</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25">
         <v>182</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26">
         <v>30</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27">
         <v>14</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27">
         <v>2</v>
       </c>
     </row>
@@ -1163,21 +1162,21 @@
       <c r="A28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28">
         <v>122</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29">
         <v>122</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29">
         <v>2</v>
       </c>
     </row>
@@ -1185,10 +1184,10 @@
       <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30">
         <v>6289</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30">
         <v>240</v>
       </c>
     </row>
@@ -1202,7 +1201,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
